--- a/nuno-dataset/test-oxigen-01/content/results/metrics_5_7.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_5_7.xlsx
@@ -482,772 +482,772 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6974622203418928</v>
+        <v>0.8325062684470713</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.217302954795444</v>
+        <v>0.3860689629457906</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5327721081510806</v>
+        <v>-0.9620332154707238</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.08427227848148955</v>
+        <v>-0.002766294536969305</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3348202109336853</v>
+        <v>0.1853661835193634</v>
       </c>
       <c r="G2" t="n">
-        <v>1.38331663608551</v>
+        <v>0.4411177635192871</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7297975420951843</v>
+        <v>0.6501564383506775</v>
       </c>
       <c r="I2" t="n">
-        <v>1.075778126716614</v>
+        <v>0.5394889116287231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_17</t>
+          <t>model_5_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7089548752024685</v>
+        <v>0.8345650607374706</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.737751787781138</v>
+        <v>0.3962642045327689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6375893158206252</v>
+        <v>-0.937613219185194</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0424263715803016</v>
+        <v>0.01152138130633651</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3221011757850647</v>
+        <v>0.1830877214670181</v>
       </c>
       <c r="G3" t="n">
-        <v>1.291402578353882</v>
+        <v>0.433792382478714</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5660759210586548</v>
+        <v>0.6420644521713257</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9500721096992493</v>
+        <v>0.5318021774291992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_22</t>
+          <t>model_5_7_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7126771490506053</v>
+        <v>0.8349951198052732</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.985447917359096</v>
+        <v>0.4140346076684601</v>
       </c>
       <c r="D4" t="n">
-        <v>0.59439944163446</v>
+        <v>-0.8232273062414259</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01490460840409757</v>
+        <v>0.05723933725306818</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3179817497730255</v>
+        <v>0.1826117783784866</v>
       </c>
       <c r="G4" t="n">
-        <v>1.33887779712677</v>
+        <v>0.4210240542888641</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6335372924804688</v>
+        <v>0.604160487651825</v>
       </c>
       <c r="I4" t="n">
-        <v>1.006953835487366</v>
+        <v>0.5072058439254761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_21</t>
+          <t>model_5_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7151745605062203</v>
+        <v>0.8351659646245376</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.935813290120324</v>
+        <v>0.4430880064415653</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6011622273031679</v>
+        <v>-0.6593971307589546</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.004817765460928936</v>
+        <v>0.12526745997413</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3152178227901459</v>
+        <v>0.1824227124452591</v>
       </c>
       <c r="G5" t="n">
-        <v>1.329364418983459</v>
+        <v>0.4001488089561462</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6229740381240845</v>
+        <v>0.5498722791671753</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9969460964202881</v>
+        <v>0.4706066846847534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_23</t>
+          <t>model_5_7_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7153249692381314</v>
+        <v>0.8353371021631145</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.91892469633464</v>
+        <v>0.4498729813377494</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5897916877482965</v>
+        <v>-0.8310641346309726</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01151359812352126</v>
+        <v>0.08030704955396684</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3150513470172882</v>
+        <v>0.1822333037853241</v>
       </c>
       <c r="G6" t="n">
-        <v>1.326127529144287</v>
+        <v>0.395273745059967</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6407344937324524</v>
+        <v>0.6067574024200439</v>
       </c>
       <c r="I6" t="n">
-        <v>1.003589510917664</v>
+        <v>0.4947954118251801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_18</t>
+          <t>model_5_7_22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7205587080049182</v>
+        <v>0.8370057728656188</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.61311624607428</v>
+        <v>0.4108585505223816</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6315835934542445</v>
+        <v>-0.9145995547097647</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05072301364502985</v>
+        <v>0.02850940827080173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3092591762542725</v>
+        <v>0.1803865730762482</v>
       </c>
       <c r="G7" t="n">
-        <v>1.267514228820801</v>
+        <v>0.4233061075210571</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5754566192626953</v>
+        <v>0.6344383955001831</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9418404698371887</v>
+        <v>0.5226626396179199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_19</t>
+          <t>model_5_7_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7237914803279565</v>
+        <v>0.8378134097761688</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.570136924563408</v>
+        <v>0.4438554019165905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6247981278214925</v>
+        <v>-0.8536884084650498</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05009121267545669</v>
+        <v>0.06949430613087637</v>
       </c>
       <c r="F8" t="n">
-        <v>0.305681437253952</v>
+        <v>0.1794927567243576</v>
       </c>
       <c r="G8" t="n">
-        <v>1.259276509284973</v>
+        <v>0.3995974659919739</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5860553979873657</v>
+        <v>0.614254355430603</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9424672722816467</v>
+        <v>0.500612735748291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_20</t>
+          <t>model_5_7_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7241726760507536</v>
+        <v>0.8389360023985794</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.587877956691899</v>
+        <v>0.4805907161427393</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6084087030547871</v>
+        <v>-0.7445312779159436</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03613553397929159</v>
+        <v>0.1271071955673245</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3052595555782318</v>
+        <v>0.1782503873109818</v>
       </c>
       <c r="G9" t="n">
-        <v>1.26267683506012</v>
+        <v>0.3732025921344757</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6116552352905273</v>
+        <v>0.5780830979347229</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9563136100769043</v>
+        <v>0.4696168899536133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_16</t>
+          <t>model_5_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7311611151266564</v>
+        <v>0.8397290603129395</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.966105110955106</v>
+        <v>0.4591137561592827</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6563395987623593</v>
+        <v>-0.863935890696756</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1352350975887898</v>
+        <v>0.07731297648161051</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2975254058837891</v>
+        <v>0.1773727089166641</v>
       </c>
       <c r="G10" t="n">
-        <v>1.143503665924072</v>
+        <v>0.3886340856552124</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5367884039878845</v>
+        <v>0.617650032043457</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8579905033111572</v>
+        <v>0.496406227350235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_8</t>
+          <t>model_5_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7494968543569596</v>
+        <v>0.8404653379623016</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.510270895971352</v>
+        <v>0.4642240900967942</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8396075823216751</v>
+        <v>-0.8627059633334764</v>
       </c>
       <c r="E11" t="n">
-        <v>0.317627648366365</v>
+        <v>0.08128268004849193</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2772331535816193</v>
+        <v>0.1765578538179398</v>
       </c>
       <c r="G11" t="n">
-        <v>1.056135416030884</v>
+        <v>0.3849622309207916</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2505286931991577</v>
+        <v>0.6172425150871277</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6770266890525818</v>
+        <v>0.4942705035209656</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_6</t>
+          <t>model_5_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7502496160343931</v>
+        <v>0.8405942365072858</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.481272550906066</v>
+        <v>0.4630544614355475</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8703661557661082</v>
+        <v>-0.8697279603440182</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3433810732465784</v>
+        <v>0.07842004946256997</v>
       </c>
       <c r="F12" t="n">
-        <v>0.276400089263916</v>
+        <v>0.1764152050018311</v>
       </c>
       <c r="G12" t="n">
-        <v>1.050577402114868</v>
+        <v>0.3858026266098022</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2024846225976944</v>
+        <v>0.6195693612098694</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6514750719070435</v>
+        <v>0.4958106875419617</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_7</t>
+          <t>model_5_7_20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7512751079756441</v>
+        <v>0.8409850788204953</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.469478495608826</v>
+        <v>0.4379776084174259</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8584806354998793</v>
+        <v>-0.8791406522750655</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3357815107734242</v>
+        <v>0.0579623939449706</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2752651572227478</v>
+        <v>0.1759826689958572</v>
       </c>
       <c r="G13" t="n">
-        <v>1.048316955566406</v>
+        <v>0.4038206934928894</v>
       </c>
       <c r="H13" t="n">
-        <v>0.221049502491951</v>
+        <v>0.6226884126663208</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6590151190757751</v>
+        <v>0.5068168640136719</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_15</t>
+          <t>model_5_7_21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7537629801268246</v>
+        <v>0.8412641313938785</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.321862004777125</v>
+        <v>0.4354043856742217</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7201098942714019</v>
+        <v>-0.8709040160454709</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2483666437527637</v>
+        <v>0.05852941367722142</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2725118100643158</v>
+        <v>0.1756738275289536</v>
       </c>
       <c r="G14" t="n">
-        <v>1.020023822784424</v>
+        <v>0.4056695997714996</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4371809363365173</v>
+        <v>0.6199590563774109</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7457451820373535</v>
+        <v>0.5065118074417114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_5</t>
+          <t>model_5_7_19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.756672133898031</v>
+        <v>0.8421782099204542</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.184476321100356</v>
+        <v>0.4460614125834715</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8770444387269956</v>
+        <v>-0.866642424535401</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3786829639069402</v>
+        <v>0.06729949448865369</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2692922651767731</v>
+        <v>0.1746622174978256</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9936915636062622</v>
+        <v>0.3980123698711395</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1920533329248428</v>
+        <v>0.6185469031333923</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6164497137069702</v>
+        <v>0.5017934441566467</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_14</t>
+          <t>model_5_7_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7568338979323226</v>
+        <v>0.8449617167536936</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.145829242278853</v>
+        <v>0.4641009970997647</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7216816853537329</v>
+        <v>-0.8450640396525388</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2675346686254851</v>
+        <v>0.0863093898062397</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2691132426261902</v>
+        <v>0.1715817004442215</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9862841367721558</v>
+        <v>0.3850506544113159</v>
       </c>
       <c r="H16" t="n">
-        <v>0.434725821018219</v>
+        <v>0.6113965511322021</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7267272472381592</v>
+        <v>0.4915661513805389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_9</t>
+          <t>model_5_7_13</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7583784953613861</v>
+        <v>0.845448996834231</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.127602289378686</v>
+        <v>0.4970839241410377</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8108148113539736</v>
+        <v>-0.8757327060744922</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3354336140673088</v>
+        <v>0.100740335789003</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2674038112163544</v>
+        <v>0.171042412519455</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9827906489372253</v>
+        <v>0.3613520264625549</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2955022156238556</v>
+        <v>0.6215591430664062</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6593602895736694</v>
+        <v>0.4838022887706757</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_10</t>
+          <t>model_5_7_12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7739916680614048</v>
+        <v>0.8463352741193775</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.546450216334809</v>
+        <v>0.5037469979583082</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7870873816403441</v>
+        <v>-0.8638482447007891</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3772900085872629</v>
+        <v>0.1088959150366064</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2501246333122253</v>
+        <v>0.1700615882873535</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8714030981063843</v>
+        <v>0.3565645217895508</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3325638473033905</v>
+        <v>0.6176210045814514</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6178317666053772</v>
+        <v>0.4794146120548248</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_13</t>
+          <t>model_5_7_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7830262461403271</v>
+        <v>0.8466038459502844</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.990722261794831</v>
+        <v>0.4752591041084009</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7165082365252546</v>
+        <v>-0.8293591523841406</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3818373446765225</v>
+        <v>0.09874995406310072</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2401260137557983</v>
+        <v>0.1697643250226974</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7648885250091553</v>
+        <v>0.3770334422588348</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4428066313266754</v>
+        <v>0.606192409992218</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6133200526237488</v>
+        <v>0.4848731458187103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_12</t>
+          <t>model_5_7_11</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7846935174009531</v>
+        <v>0.846606219510216</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.979379301277777</v>
+        <v>0.507266382969475</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7323688308092395</v>
+        <v>-0.8579950391202416</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3947474523242854</v>
+        <v>0.1130806996794548</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2382808476686478</v>
+        <v>0.1697617024183273</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7627145648002625</v>
+        <v>0.3540357947349548</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4180328249931335</v>
+        <v>0.6156814694404602</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6005110740661621</v>
+        <v>0.4771631956100464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_11</t>
+          <t>model_5_7_16</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7850846528085643</v>
+        <v>0.8468802976169137</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.00825931285572</v>
+        <v>0.4949156911044784</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7455792133774939</v>
+        <v>-0.8648038235995252</v>
       </c>
       <c r="E21" t="n">
-        <v>0.401580176431654</v>
+        <v>0.1023745306185251</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2378479391336441</v>
+        <v>0.1694583892822266</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7682498097419739</v>
+        <v>0.3629099130630493</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3973985314369202</v>
+        <v>0.6179376840591431</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5937318801879883</v>
+        <v>0.4829231202602386</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_0</t>
+          <t>model_5_7_2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.868740422980479</v>
+        <v>0.8472903827655492</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9968286111236023</v>
+        <v>0.6146260499943573</v>
       </c>
       <c r="D22" t="n">
-        <v>0.996378394504709</v>
+        <v>-0.6019209402292303</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9969925229831027</v>
+        <v>0.2632111680928263</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1452656835317612</v>
+        <v>0.1690045595169067</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0006078496808186173</v>
+        <v>0.2768964171409607</v>
       </c>
       <c r="H22" t="n">
-        <v>0.005656851455569267</v>
+        <v>0.5308265089988708</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002983917016535997</v>
+        <v>0.3963928818702698</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_1</t>
+          <t>model_5_7_15</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.873371440559328</v>
+        <v>0.8487330992059434</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9891996301004663</v>
+        <v>0.5020598529106987</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9942087163002719</v>
+        <v>-0.8363514576554716</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9946050369768564</v>
+        <v>0.1156725905870286</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1401405036449432</v>
+        <v>0.1674078851938248</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002070071408525109</v>
+        <v>0.3577767610549927</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009045831859111786</v>
+        <v>0.6085094213485718</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005352699663490057</v>
+        <v>0.4757687151432037</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_2</t>
+          <t>model_5_7_14</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8763806242887576</v>
+        <v>0.8500566375319309</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9377755261822076</v>
+        <v>0.5179230084760553</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9882689827973903</v>
+        <v>-0.8362325620069788</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9849451377634348</v>
+        <v>0.1269238985410719</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1368102133274078</v>
+        <v>0.1659431159496307</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01192635949701071</v>
+        <v>0.3463788628578186</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01832353696227074</v>
+        <v>0.60847008228302</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01493692584335804</v>
+        <v>0.4697155058383942</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_3</t>
+          <t>model_5_7_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8794261526790388</v>
+        <v>0.8675260259460813</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9066507389151482</v>
+        <v>0.7508122933003925</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9846461507564183</v>
+        <v>-0.4112190631290049</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9790781588684516</v>
+        <v>0.4147749990172763</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1334397196769714</v>
+        <v>0.1466096490621567</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01789194531738758</v>
+        <v>0.1790447533130646</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02398230507969856</v>
+        <v>0.467633843421936</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02075794152915478</v>
+        <v>0.3148514628410339</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_4</t>
+          <t>model_5_7_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8798382529207642</v>
+        <v>0.9096522800229095</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8118621695379652</v>
+        <v>0.835941435908865</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9764038878736441</v>
+        <v>0.4997197122654081</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9632776125493101</v>
+        <v>0.7389987163461802</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1329836547374725</v>
+        <v>0.09998830407857895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03605975583195686</v>
+        <v>0.1178782880306244</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03685650229454041</v>
+        <v>0.1657772362232208</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03643471002578735</v>
+        <v>0.1404188722372055</v>
       </c>
     </row>
   </sheetData>
